--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B04F3261-6C44-4C99-9344-76A2309C65C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48BD0CDF-1AC9-4E82-BFBE-7E8057C9C546}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19550,8 +19550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="5" sqref="A1:A7 C1:C7 E1:E7 G1:G7 I1:I7 K1:K7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48BD0CDF-1AC9-4E82-BFBE-7E8057C9C546}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="50" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +276,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -454,7 +453,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -561,7 +560,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -668,7 +667,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -775,7 +774,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -882,7 +881,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -989,7 +988,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -1005,11 +1004,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="893354543"/>
-        <c:axId val="893347055"/>
+        <c:axId val="428660256"/>
+        <c:axId val="428662608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="893354543"/>
+        <c:axId val="428660256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893347055"/>
+        <c:crossAx val="428662608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1060,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="893347055"/>
+        <c:axId val="428662608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1113,7 +1112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893354543"/>
+        <c:crossAx val="428660256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1195,7 +1194,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1235,6 +1234,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1348,7 +1348,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1431,7 +1431,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1514,7 +1514,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1597,7 +1597,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1680,7 +1680,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1696,11 +1696,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="553661304"/>
-        <c:axId val="553661624"/>
+        <c:axId val="455675240"/>
+        <c:axId val="455674848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553661304"/>
+        <c:axId val="455675240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553661624"/>
+        <c:crossAx val="455674848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553661624"/>
+        <c:axId val="455674848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1802,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553661304"/>
+        <c:crossAx val="455675240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1816,6 +1816,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1847,14 +1848,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1890,7 +1891,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2051,7 +2052,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2134,7 +2135,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2217,7 +2218,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2300,7 +2301,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2383,7 +2384,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2399,11 +2400,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="553668024"/>
-        <c:axId val="553669304"/>
+        <c:axId val="455902248"/>
+        <c:axId val="455903424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553668024"/>
+        <c:axId val="455902248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553669304"/>
+        <c:crossAx val="455903424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553669304"/>
+        <c:axId val="455903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2506,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553668024"/>
+        <c:crossAx val="455902248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2519,6 +2520,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2550,14 +2552,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2593,7 +2595,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2633,6 +2635,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2746,7 +2749,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -2829,7 +2832,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -2912,7 +2915,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -2995,7 +2998,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -3078,7 +3081,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -3094,11 +3097,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="553673784"/>
-        <c:axId val="553674104"/>
+        <c:axId val="455902640"/>
+        <c:axId val="455908520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553673784"/>
+        <c:axId val="455902640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +3144,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553674104"/>
+        <c:crossAx val="455908520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3149,7 +3152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553674104"/>
+        <c:axId val="455908520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,7 +3203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553673784"/>
+        <c:crossAx val="455902640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3214,6 +3217,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3245,14 +3249,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3288,7 +3292,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3465,7 +3469,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3572,7 +3576,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3679,7 +3683,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3786,7 +3790,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3893,7 +3897,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -4000,7 +4004,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -4016,11 +4020,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162110607"/>
-        <c:axId val="1162107279"/>
+        <c:axId val="428665352"/>
+        <c:axId val="428665744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162110607"/>
+        <c:axId val="428665352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4067,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162107279"/>
+        <c:crossAx val="428665744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162107279"/>
+        <c:axId val="428665744"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -4124,7 +4128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162110607"/>
+        <c:crossAx val="428665352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4205,7 +4209,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4382,7 +4386,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4489,7 +4493,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4596,7 +4600,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4703,7 +4707,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4810,7 +4814,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4917,7 +4921,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4933,11 +4937,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1026278335"/>
-        <c:axId val="1026284159"/>
+        <c:axId val="428666528"/>
+        <c:axId val="428660648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1026278335"/>
+        <c:axId val="428666528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4984,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1026284159"/>
+        <c:crossAx val="428660648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4988,7 +4992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1026284159"/>
+        <c:axId val="428660648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,7 +5043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1026278335"/>
+        <c:crossAx val="428666528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5120,7 +5124,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5297,7 +5301,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5404,7 +5408,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5511,7 +5515,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5618,7 +5622,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5725,7 +5729,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5832,7 +5836,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5848,11 +5852,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162114767"/>
-        <c:axId val="1162108111"/>
+        <c:axId val="455681512"/>
+        <c:axId val="455677200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162114767"/>
+        <c:axId val="455681512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +5899,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162108111"/>
+        <c:crossAx val="455677200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5903,7 +5907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162108111"/>
+        <c:axId val="455677200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +5958,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162114767"/>
+        <c:crossAx val="455681512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6035,7 +6039,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6075,6 +6079,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6188,7 +6193,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6271,7 +6276,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6354,7 +6359,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6437,7 +6442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6520,7 +6525,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6536,11 +6541,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="84227896"/>
-        <c:axId val="84226616"/>
+        <c:axId val="455674456"/>
+        <c:axId val="455677592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84227896"/>
+        <c:axId val="455674456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6583,7 +6588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84226616"/>
+        <c:crossAx val="455677592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6591,7 +6596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84226616"/>
+        <c:axId val="455677592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6642,7 +6647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84227896"/>
+        <c:crossAx val="455674456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6656,6 +6661,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6687,14 +6693,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6730,7 +6736,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6770,6 +6776,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6883,7 +6890,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -6966,7 +6973,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7049,7 +7056,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7132,7 +7139,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7215,7 +7222,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7231,11 +7238,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="405698512"/>
-        <c:axId val="405696912"/>
+        <c:axId val="455675632"/>
+        <c:axId val="455676024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="405698512"/>
+        <c:axId val="455675632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7278,7 +7285,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405696912"/>
+        <c:crossAx val="455676024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7286,7 +7293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405696912"/>
+        <c:axId val="455676024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7337,7 +7344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405698512"/>
+        <c:crossAx val="455675632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7351,6 +7358,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7382,14 +7390,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7425,7 +7433,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7465,6 +7473,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7578,7 +7587,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7661,7 +7670,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7744,7 +7753,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7827,7 +7836,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7910,7 +7919,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7926,11 +7935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="405704592"/>
-        <c:axId val="405701712"/>
+        <c:axId val="455676808"/>
+        <c:axId val="455678768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="405704592"/>
+        <c:axId val="455676808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7973,7 +7982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405701712"/>
+        <c:crossAx val="455678768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7981,7 +7990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405701712"/>
+        <c:axId val="455678768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8032,7 +8041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405704592"/>
+        <c:crossAx val="455676808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8046,6 +8055,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8077,14 +8087,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8120,7 +8130,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8160,6 +8170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8273,7 +8284,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8356,7 +8367,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8439,7 +8450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8522,7 +8533,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8605,7 +8616,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8621,11 +8632,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="559953720"/>
-        <c:axId val="559954680"/>
+        <c:axId val="455679160"/>
+        <c:axId val="455679552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="559953720"/>
+        <c:axId val="455679160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8668,7 +8679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559954680"/>
+        <c:crossAx val="455679552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8676,7 +8687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="559954680"/>
+        <c:axId val="455679552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8727,7 +8738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559953720"/>
+        <c:crossAx val="455679160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8741,6 +8752,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8772,14 +8784,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8815,7 +8827,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8976,7 +8988,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9059,7 +9071,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9142,7 +9154,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9225,7 +9237,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9308,7 +9320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9324,11 +9336,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="596395600"/>
-        <c:axId val="596394640"/>
+        <c:axId val="455681120"/>
+        <c:axId val="455678376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="596395600"/>
+        <c:axId val="455681120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9371,7 +9383,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596394640"/>
+        <c:crossAx val="455678376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9379,7 +9391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596394640"/>
+        <c:axId val="455678376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9430,7 +9442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596395600"/>
+        <c:crossAx val="455681120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9444,6 +9456,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9475,14 +9488,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -16053,7 +16066,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16089,7 +16102,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16125,7 +16138,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16161,7 +16174,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16197,7 +16210,7 @@
         <xdr:cNvPr id="17" name="图表 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DC3B8-1DE7-4DF3-B89A-A2371C04E1CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B29DC3B8-1DE7-4DF3-B89A-A2371C04E1CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16233,7 +16246,7 @@
         <xdr:cNvPr id="18" name="图表 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9F0746-7751-459C-B58E-BEA028D7E9B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA9F0746-7751-459C-B58E-BEA028D7E9B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16269,7 +16282,7 @@
         <xdr:cNvPr id="19" name="图表 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85D6FC7-19F0-4BC2-AE5D-E3F310861BDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A85D6FC7-19F0-4BC2-AE5D-E3F310861BDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16305,7 +16318,7 @@
         <xdr:cNvPr id="20" name="图表 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807EB067-64CB-46D0-84ED-DD6B55D73F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{807EB067-64CB-46D0-84ED-DD6B55D73F87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16341,7 +16354,7 @@
         <xdr:cNvPr id="21" name="图表 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70D2222-176F-489C-B893-DBA7374450C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D70D2222-176F-489C-B893-DBA7374450C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16377,7 +16390,7 @@
         <xdr:cNvPr id="23" name="图表 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A59640-C703-44E9-ABD2-3C4F09FC3815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6A59640-C703-44E9-ABD2-3C4F09FC3815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16413,7 +16426,7 @@
         <xdr:cNvPr id="24" name="图表 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C77F8D7-FFBF-4A7C-B48B-900901425FFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C77F8D7-FFBF-4A7C-B48B-900901425FFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16434,22 +16447,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>633618</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65431</xdr:rowOff>
+      <xdr:colOff>898661</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>521760</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>86</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>140760</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>29075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="25" name="图表 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655C1B58-2840-4AAD-B18D-86A07D5CE547}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{655C1B58-2840-4AAD-B18D-86A07D5CE547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16732,20 +16745,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -16771,7 +16784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16802,7 +16815,7 @@
         <v>1.0244619579350101E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -16824,7 +16837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -16855,7 +16868,7 @@
         <v>2.5622806450918331E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16877,7 +16890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16899,7 +16912,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -16921,7 +16934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -16952,7 +16965,7 @@
         <v>1.1976845903611164E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -16974,7 +16987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -16996,7 +17009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -17027,7 +17040,7 @@
         <v>5.375451231983498E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -17058,7 +17071,7 @@
         <v>5.879904978238629E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -17071,7 +17084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -17102,7 +17115,7 @@
         <v>6.012683187141618E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -17133,7 +17146,7 @@
         <v>1.7237651078656752E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17146,7 +17159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -17177,7 +17190,7 @@
         <v>2.6990094768176211E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -17208,7 +17221,7 @@
         <v>8.9530615328551489E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -17239,7 +17252,7 @@
         <v>7.875014297863029E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -17278,19 +17291,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -17310,7 +17323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17341,7 +17354,7 @@
         <v>6.4787946759712559E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17363,7 +17376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17394,7 +17407,7 @@
         <v>1.3941148094548965E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17416,7 +17429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17438,7 +17451,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -17460,7 +17473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -17491,7 +17504,7 @@
         <v>4.0677879649583657E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -17513,7 +17526,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -17535,7 +17548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -17566,7 +17579,7 @@
         <v>4.7481510420174858E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -17597,7 +17610,7 @@
         <v>5.4858189027350707E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -17610,7 +17623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -17641,7 +17654,7 @@
         <v>5.3093640071649002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -17672,7 +17685,7 @@
         <v>2.1195712850284694E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17685,7 +17698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -17716,7 +17729,7 @@
         <v>1.1036502246680466E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -17747,7 +17760,7 @@
         <v>8.7457173836981723E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -17778,7 +17791,7 @@
         <v>7.8981068838591181E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -17816,16 +17829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8268FC-C6B5-437D-808E-BF66AF9D1876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -17845,7 +17858,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -17865,7 +17878,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17885,7 +17898,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17905,7 +17918,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17933,19 +17946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -17965,7 +17978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17996,7 +18009,7 @@
         <v>2.3007838014369692E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18018,7 +18031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18049,7 +18062,7 @@
         <v>7.3970509057436143E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18071,7 +18084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18093,7 +18106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18115,7 +18128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18146,7 +18159,7 @@
         <v>4.0406121021604969E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18168,7 +18181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18190,7 +18203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -18221,7 +18234,7 @@
         <v>1.6644395210258511E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -18252,7 +18265,7 @@
         <v>3.1250783987422752E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -18265,7 +18278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -18296,7 +18309,7 @@
         <v>2.1074257664651257E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -18327,7 +18340,7 @@
         <v>1.0179874111391639E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -18340,7 +18353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -18371,7 +18384,7 @@
         <v>4.0013276009787197E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -18402,7 +18415,7 @@
         <v>7.9767197411850354E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -18433,7 +18446,7 @@
         <v>1.685244433665712E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -18471,19 +18484,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -18503,7 +18516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18534,7 +18547,7 @@
         <v>8.4054537542909646E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18556,7 +18569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -18587,7 +18600,7 @@
         <v>3.3185381442735785E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18609,7 +18622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18631,7 +18644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18653,7 +18666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18684,7 +18697,7 @@
         <v>1.8248482358242984E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18706,7 +18719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18728,7 +18741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -18759,7 +18772,7 @@
         <v>4.9538596381393601E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -18790,7 +18803,7 @@
         <v>8.9873877968412688E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -18803,7 +18816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -18834,7 +18847,7 @@
         <v>6.2095050156224296E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -18865,7 +18878,7 @@
         <v>5.4173385796297484E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -18878,7 +18891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -18909,7 +18922,7 @@
         <v>1.2817491489918828E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -18940,7 +18953,7 @@
         <v>1.890740508708182E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -18971,7 +18984,7 @@
         <v>3.8686529203379054E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -19009,19 +19022,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -19041,7 +19054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19072,7 +19085,7 @@
         <v>0.45345109584560023</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -19094,7 +19107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -19125,7 +19138,7 @@
         <v>0.1919563058589871</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -19147,7 +19160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -19169,7 +19182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -19191,7 +19204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -19222,7 +19235,7 @@
         <v>8.2734659362476565E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -19244,7 +19257,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -19266,7 +19279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -19297,7 +19310,7 @@
         <v>0.14154365246731337</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -19328,7 +19341,7 @@
         <v>0.32850304612706704</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -19341,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -19372,7 +19385,7 @@
         <v>0.1753196846220102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -19403,7 +19416,7 @@
         <v>0.3403746097814776</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -19416,7 +19429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -19447,7 +19460,7 @@
         <v>6.3195907312669275E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -19478,7 +19491,7 @@
         <v>7.3626052779337453E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -19509,7 +19522,7 @@
         <v>0.1078868284101737</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -19547,29 +19560,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" customWidth="1"/>
+    <col min="6" max="6" width="20.46484375" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" customWidth="1"/>
+    <col min="8" max="8" width="16.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.46484375" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" customWidth="1"/>
+    <col min="11" max="11" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -19601,7 +19614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -19636,7 +19649,7 @@
         <v>0.89664699999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -19671,7 +19684,7 @@
         <v>0.84405300000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -19706,7 +19719,7 @@
         <v>0.89888699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -19741,7 +19754,7 @@
         <v>0.89093</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -19776,7 +19789,7 @@
         <v>0.94489100000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -19811,39 +19824,101 @@
         <v>0.89610500000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>10</v>
+        <f>SUM(B2:B7)/6</f>
+        <v>0.99356133333333341</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <f t="shared" ref="C8:K8" si="0">SUM(C2:C7)/6</f>
+        <v>0.99351416666666659</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0.98366833333333326</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0.98359199999999991</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>0.9801169999999999</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>0.97371400000000008</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>0.95629683333333315</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>0.94854533333333324</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0.91207416666666674</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>0.89525216666666674</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <f>B8/C8</f>
+        <v>1.000047474578873</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:K9" si="1">C8/D8</f>
+        <v>1.0100093019157881</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.0000776067041348</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.0035454950786489</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.0065758528685012</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.0182131384937838</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.0081719868598793</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.0399870624556298</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1.0187902365683561</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f>B9+D9+F9+H9+J9</f>
+        <v>5.0336631575797437</v>
+      </c>
+      <c r="C10">
+        <f>B10/5</f>
+        <v>1.0067326315159488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -19875,7 +19950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -19910,7 +19985,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -19945,7 +20020,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -19980,7 +20055,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -20015,7 +20090,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -20050,7 +20125,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -20085,7 +20160,143 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f>SUM(B12:B17)</f>
+        <v>4703926</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:K18" si="2">SUM(C12:C17)</f>
+        <v>3710723</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>2709901</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1908162</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1906977</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1287626</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>985199</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>410724</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>323352</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>18029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <f>B18/6</f>
+        <v>783987.66666666663</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="3">C18/6</f>
+        <v>618453.83333333337</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>451650.16666666669</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>318027</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>317829.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>214604.33333333334</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>164199.83333333334</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>68454</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>53892</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>3004.8333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <f>B19/C19</f>
+        <v>1.2676575427484076</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:K20" si="4">C19/D19</f>
+        <v>1.3693205028523183</v>
+      </c>
+      <c r="D20">
+        <f>D19/E19</f>
+        <v>1.4201629631027135</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>1.0006214023556654</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>1.4810022475470361</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>1.3069704699253653</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>2.398688657103067</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>1.2702070808283232</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>17.935104553774472</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f>B20+D20+F20+H20+J20</f>
+        <v>24.502615964275698</v>
+      </c>
+      <c r="C21">
+        <f>B21/5</f>
+        <v>4.9005231928551396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -20117,7 +20328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -20152,7 +20363,7 @@
         <v>2.5699999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -20187,7 +20398,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -20222,7 +20433,7 @@
         <v>3.271E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -20257,7 +20468,7 @@
         <v>9.665E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -20292,7 +20503,7 @@
         <v>7.5490000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -20327,7 +20538,101 @@
         <v>3.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <f>SUM(B23:B28)/6</f>
+        <v>3.1935000000000002E-3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:K29" si="5">SUM(C23:C28)</f>
+        <v>1.3545E-2</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D23:D28)/6</f>
+        <v>1.1944833333333333E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>5.3097000000000005E-2</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F23:F28)/6</f>
+        <v>3.7909166666666667E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0.14707700000000001</v>
+      </c>
+      <c r="H29">
+        <f>SUM(H23:H28)/6</f>
+        <v>5.8743666666666666E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.159883</v>
+      </c>
+      <c r="J29">
+        <f>SUM(J23:J28)/6</f>
+        <v>6.8878499999999995E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>3.0811000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <f>B29/C29</f>
+        <v>0.23576965669988928</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:K30" si="6">C29/D29</f>
+        <v>1.133963080271805</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>0.22496249003396299</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>1.4006374887340354</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>0.25775047537457701</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>2.5037082011677856</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0.36741659004813937</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>2.3212323148732916</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>2.23551653630197</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <f>B30+D30+F30+H30+J30</f>
+        <v>3.3214157484585387</v>
+      </c>
+      <c r="C31">
+        <f>B31/5</f>
+        <v>0.66428314969170776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -20359,7 +20664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -20368,43 +20673,43 @@
         <v>3.2251845379833419E-4</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:K34" si="0">C23/C12*100000</f>
+        <f t="shared" ref="C34:K34" si="7">C23/C12*100000</f>
         <v>3.3324403964639696E-4</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2.2855973989621687E-3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2.1917048134276603E-3</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.000552238081367E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0166494232180377E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3.352877055154576E-2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>3.973981263861763E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.1455396868316905</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.35793871866295263</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -20413,225 +20718,320 @@
         <v>2.9239115658868746E-4</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:K35" si="1">C24/C13*100000</f>
+        <f t="shared" ref="C35:K35" si="8">C24/C13*100000</f>
         <v>2.6990094768176211E-4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.142632940177921E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.1036502246680466E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3.7177951821274523E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4.0013276009787197E-3</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.1467996243865831E-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.2817491489918828E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4.7155973575187547E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6.3195907312669275E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:K36" si="2">B25/B14*100000</f>
+        <f t="shared" ref="B36:K36" si="9">B25/B14*100000</f>
         <v>2.2344712335413267E-4</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.7237651078656752E-4</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.9124569494595592E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1195712850284694E-3</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>9.4741834429564551E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0179874111391639E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.168862847967051E-2</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.4173385796297484E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.22438886472379296</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.3403746097814776</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:K37" si="3">B26/B15*100000</f>
+        <f t="shared" ref="B37:K37" si="10">B26/B15*100000</f>
         <v>3.4837000195469452E-4</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5622806450918331E-4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.4193086469857399E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.3941148094548965E-3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.0146537159319615E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>7.3970509057436143E-3</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2666204760731177E-2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.3185381442735785E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.10999011725088763</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.1919563058589871</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:K38" si="4">B27/B16*100000</f>
+        <f t="shared" ref="B38:K38" si="11">B27/B16*100000</f>
         <v>7.5206701192580164E-4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5.879904978238629E-4</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6.0090396199540064E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>5.9915641689593782E-3</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.1328400719894935E-2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.1250783987422752E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>8.6439729496457465E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>8.9873877968412688E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.23869894237782641</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.32850304612706704</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:K39" si="5">B28/B17*100000</f>
+        <f t="shared" ref="B39:K39" si="12">B28/B17*100000</f>
         <v>5.5359657550676958E-4</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5.375451231983498E-4</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.9333684235710693E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.7481510420174858E-3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.656663504572874E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.6644395210258511E-2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.3724507431731771E-2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.9538596381393601E-2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.1470452198122951</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14997891185153944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <f>SUM(B34:B39)</f>
+        <v>2.49239032312842E-3</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:K40" si="13">SUM(C34:C39)</f>
+        <v>2.1572851836461227E-3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="13"/>
+        <v>1.7702403979110465E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="13"/>
+        <v>1.7548756343555936E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="13"/>
+        <v>8.1239073930840858E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="13"/>
+        <v>7.9639926047975623E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>0.24951583696400254</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="13"/>
+        <v>0.27932854571737598</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="13"/>
+        <v>0.91281880457168019</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="13"/>
+        <v>1.4319474995946933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <f>B40/C40</f>
+        <v>1.155336504428182</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:K41" si="14">C40/D40</f>
+        <v>0.12186396752620741</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="14"/>
+        <v>1.0087554714731082</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="14"/>
+        <v>0.21601374184170613</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="14"/>
+        <v>1.0200797258639078</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="14"/>
+        <v>0.31917784064129451</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="14"/>
+        <v>0.89327009641349764</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="14"/>
+        <v>0.30600656375439661</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="14"/>
+        <v>0.63746667027251325</v>
+      </c>
+      <c r="K41" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <f>B41+D41+F41+H41+J41</f>
+        <v>4.7149084684512088</v>
+      </c>
+      <c r="C42">
+        <f>B42/5</f>
+        <v>0.94298169369024176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB2495E8-8E39-4D80-A182-8078AE70CDD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
@@ -14,8 +15,9 @@
     <sheet name="40" sheetId="4" r:id="rId5"/>
     <sheet name="50" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
   <si>
     <t>BasketballDrill_832x480_50</t>
   </si>
@@ -208,12 +210,40 @@
     <t>BQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Traffic single-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeopleOnStreet single-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkScene  single-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnny single-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic multi-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkScene multi-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnny multi-sized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +257,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,13 +287,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -276,7 +343,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -453,7 +520,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -560,7 +627,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -667,7 +734,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -774,7 +841,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -881,7 +948,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -988,7 +1055,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5258-4F26-AE6D-D436B699FBDC}"/>
             </c:ext>
@@ -1194,7 +1261,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1234,7 +1301,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1348,7 +1414,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1431,7 +1497,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1514,7 +1580,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1597,7 +1663,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1680,7 +1746,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-486B-43D8-A0D3-E1208122AB4C}"/>
             </c:ext>
@@ -1816,7 +1882,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1848,14 +1913,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1891,7 +1956,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2052,7 +2117,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2135,7 +2200,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2218,7 +2283,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2301,7 +2366,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2384,7 +2449,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0081-49DE-9AE3-CD97FA13798B}"/>
             </c:ext>
@@ -2520,7 +2585,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2552,14 +2616,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2595,7 +2659,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2635,7 +2699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2749,7 +2812,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -2832,7 +2895,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -2915,7 +2978,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -2998,7 +3061,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -3081,7 +3144,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4853-4A9F-B65B-F7F322D37EEC}"/>
             </c:ext>
@@ -3217,7 +3280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3249,14 +3311,1942 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Capacity</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traffic multi-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="0" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="diamond" w="lg" len="lg"/>
+                <a:tailEnd type="oval" w="lg" len="lg"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>975138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AD2-432D-AB67-07D63ADBAADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParkScene multi-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="sq">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>742010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>419565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AD2-432D-AB67-07D63ADBAADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Johnny multi-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>682386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AD2-432D-AB67-07D63ADBAADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Traffic single-sized</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>839925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>439749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7AD2-432D-AB67-07D63ADBAADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParkScene  single-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>652061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7AD2-432D-AB67-07D63ADBAADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Johnny single-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>576710</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7AD2-432D-AB67-07D63ADBAADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="711868472"/>
+        <c:axId val="711871672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="711868472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>QPs</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711871672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711871672"/>
+        <c:scaling>
+          <c:logBase val="5"/>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Capacity(bits)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711868472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83081543734137508"/>
+          <c:y val="0.10408760584744715"/>
+          <c:w val="0.14724445336456504"/>
+          <c:h val="0.21955484739220096"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>BIR-NC(%/Kbits)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traffic multi-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2251845379833419E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2855973989621687E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.000552238081367E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.352877055154576E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1455396868316905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32E5-4D24-A07C-EA613F16561C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParkScene multi-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2344712335413267E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9124569494595592E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4741834429564551E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.168862847967051E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22438886472379296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32E5-4D24-A07C-EA613F16561C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Johnny multi-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5206701192580164E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0090396199540064E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1328400719894935E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6439729496457465E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23869894237782641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-32E5-4D24-A07C-EA613F16561C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traffic single-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3324403964639696E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1917048134276603E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0166494232180377E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.973981263861763E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35793871866295263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-32E5-4D24-A07C-EA613F16561C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParkScene  single-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7237651078656752E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1195712850284694E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0179874111391639E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4173385796297484E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3403746097814776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-32E5-4D24-A07C-EA613F16561C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Johnny single-sized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.879904978238629E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9915641689593782E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1250783987422752E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9873877968412688E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32850304612706704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-32E5-4D24-A07C-EA613F16561C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="819432248"/>
+        <c:axId val="819429368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="819432248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>QPs</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819429368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="819429368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>BIR-NC(%/Kbits)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819432248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14994524183415636"/>
+          <c:y val="7.3139994869940259E-2"/>
+          <c:w val="0.19125403129524546"/>
+          <c:h val="0.34144212033973104"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3292,7 +5282,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3469,7 +5459,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3576,7 +5566,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3683,7 +5673,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3790,7 +5780,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -3897,7 +5887,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -4004,7 +5994,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-AFBC-48DB-B132-24267164F462}"/>
             </c:ext>
@@ -4209,7 +6199,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4386,7 +6376,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4493,7 +6483,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4600,7 +6590,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4707,7 +6697,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4814,7 +6804,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -4921,7 +6911,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5C13-437F-BF45-8E9171380B4F}"/>
             </c:ext>
@@ -5124,7 +7114,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5301,7 +7291,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5408,7 +7398,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5515,7 +7505,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5622,7 +7612,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5729,7 +7719,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -5836,7 +7826,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7D11-4A22-98A0-50DB3D00CD0E}"/>
             </c:ext>
@@ -6039,7 +8029,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6079,7 +8069,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6193,7 +8182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6276,7 +8265,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6359,7 +8348,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6442,7 +8431,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6525,7 +8514,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6523-448F-BC84-406AA15A993F}"/>
             </c:ext>
@@ -6661,7 +8650,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6693,14 +8681,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6736,7 +8724,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6776,7 +8764,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6890,7 +8877,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -6973,7 +8960,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7056,7 +9043,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7139,7 +9126,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7222,7 +9209,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ED36-4D65-B434-103B62CBA226}"/>
             </c:ext>
@@ -7358,7 +9345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7390,14 +9376,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7433,7 +9419,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7473,7 +9459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7587,7 +9572,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7670,7 +9655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7753,7 +9738,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7836,7 +9821,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -7919,7 +9904,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BCF2-4C15-9FB8-C3EB931BE83C}"/>
             </c:ext>
@@ -8055,7 +10040,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8087,14 +10071,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8130,7 +10114,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8170,7 +10154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8284,7 +10267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8367,7 +10350,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8450,7 +10433,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8533,7 +10516,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8616,7 +10599,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5227-4C9F-AF3F-45A9C214AE61}"/>
             </c:ext>
@@ -8752,7 +10735,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8784,14 +10766,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8827,7 +10809,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8988,7 +10970,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9071,7 +11053,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9154,7 +11136,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9237,7 +11219,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9320,7 +11302,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D0DC-42B3-B1FA-A815A94BC6F4}"/>
             </c:ext>
@@ -9456,7 +11438,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9488,14 +11469,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9651,6 +11632,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12022,6 +14083,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -16066,7 +19133,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16102,7 +19169,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16138,7 +19205,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16174,7 +19241,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16210,7 +19277,7 @@
         <xdr:cNvPr id="17" name="图表 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B29DC3B8-1DE7-4DF3-B89A-A2371C04E1CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DC3B8-1DE7-4DF3-B89A-A2371C04E1CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16246,7 +19313,7 @@
         <xdr:cNvPr id="18" name="图表 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA9F0746-7751-459C-B58E-BEA028D7E9B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9F0746-7751-459C-B58E-BEA028D7E9B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16282,7 +19349,7 @@
         <xdr:cNvPr id="19" name="图表 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A85D6FC7-19F0-4BC2-AE5D-E3F310861BDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85D6FC7-19F0-4BC2-AE5D-E3F310861BDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16318,7 +19385,7 @@
         <xdr:cNvPr id="20" name="图表 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{807EB067-64CB-46D0-84ED-DD6B55D73F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807EB067-64CB-46D0-84ED-DD6B55D73F87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16354,7 +19421,7 @@
         <xdr:cNvPr id="21" name="图表 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D70D2222-176F-489C-B893-DBA7374450C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70D2222-176F-489C-B893-DBA7374450C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16390,7 +19457,7 @@
         <xdr:cNvPr id="23" name="图表 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6A59640-C703-44E9-ABD2-3C4F09FC3815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A59640-C703-44E9-ABD2-3C4F09FC3815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16426,7 +19493,7 @@
         <xdr:cNvPr id="24" name="图表 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C77F8D7-FFBF-4A7C-B48B-900901425FFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C77F8D7-FFBF-4A7C-B48B-900901425FFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16462,7 +19529,7 @@
         <xdr:cNvPr id="25" name="图表 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{655C1B58-2840-4AAD-B18D-86A07D5CE547}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655C1B58-2840-4AAD-B18D-86A07D5CE547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16475,6 +19542,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656857</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>605936</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76932</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD317EB-5239-4421-8CBA-290AC7C12592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329711</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>329712</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CFA5D7-A228-47DD-91CE-CB7437EEA02F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16745,20 +19889,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -16784,7 +19928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16815,7 +19959,7 @@
         <v>1.0244619579350101E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -16837,7 +19981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -16868,7 +20012,7 @@
         <v>2.5622806450918331E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16890,7 +20034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16912,7 +20056,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -16934,7 +20078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -16965,7 +20109,7 @@
         <v>1.1976845903611164E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -16987,7 +20131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -17009,7 +20153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -17040,7 +20184,7 @@
         <v>5.375451231983498E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -17071,7 +20215,7 @@
         <v>5.879904978238629E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -17084,7 +20228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -17115,7 +20259,7 @@
         <v>6.012683187141618E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -17146,7 +20290,7 @@
         <v>1.7237651078656752E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17159,7 +20303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -17190,7 +20334,7 @@
         <v>2.6990094768176211E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -17221,7 +20365,7 @@
         <v>8.9530615328551489E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -17249,10 +20393,10 @@
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>7.875014297863029E-3</v>
+        <v>7.8750142978630273E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -17291,19 +20435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -17323,7 +20467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17354,7 +20498,7 @@
         <v>6.4787946759712559E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17376,7 +20520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17407,7 +20551,7 @@
         <v>1.3941148094548965E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17429,7 +20573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17451,7 +20595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -17473,7 +20617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -17504,7 +20648,7 @@
         <v>4.0677879649583657E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -17526,7 +20670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -17548,7 +20692,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -17579,7 +20723,7 @@
         <v>4.7481510420174858E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -17610,7 +20754,7 @@
         <v>5.4858189027350707E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -17623,7 +20767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -17654,7 +20798,7 @@
         <v>5.3093640071649002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -17685,7 +20829,7 @@
         <v>2.1195712850284694E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -17698,7 +20842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -17729,7 +20873,7 @@
         <v>1.1036502246680466E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -17760,7 +20904,7 @@
         <v>8.7457173836981723E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -17791,7 +20935,7 @@
         <v>7.8981068838591181E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -17829,16 +20973,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -17858,7 +21002,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -17878,7 +21022,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17898,7 +21042,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17918,7 +21062,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17946,19 +21090,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -17978,7 +21122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18009,7 +21153,7 @@
         <v>2.3007838014369692E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18031,7 +21175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18062,7 +21206,7 @@
         <v>7.3970509057436143E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18084,7 +21228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18106,7 +21250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18128,7 +21272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18159,7 +21303,7 @@
         <v>4.0406121021604969E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18181,7 +21325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18203,7 +21347,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -18234,7 +21378,7 @@
         <v>1.6644395210258511E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -18265,7 +21409,7 @@
         <v>3.1250783987422752E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -18278,7 +21422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -18309,7 +21453,7 @@
         <v>2.1074257664651257E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -18340,7 +21484,7 @@
         <v>1.0179874111391639E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -18353,7 +21497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -18384,7 +21528,7 @@
         <v>4.0013276009787197E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -18415,7 +21559,7 @@
         <v>7.9767197411850354E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -18446,7 +21590,7 @@
         <v>1.685244433665712E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -18484,19 +21628,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -18516,7 +21660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18547,7 +21691,7 @@
         <v>8.4054537542909646E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18569,7 +21713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -18600,7 +21744,7 @@
         <v>3.3185381442735785E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18622,7 +21766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18644,7 +21788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18666,7 +21810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18697,7 +21841,7 @@
         <v>1.8248482358242984E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18719,7 +21863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18741,7 +21885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -18772,7 +21916,7 @@
         <v>4.9538596381393601E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -18803,7 +21947,7 @@
         <v>8.9873877968412688E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -18816,7 +21960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -18847,7 +21991,7 @@
         <v>6.2095050156224296E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -18878,7 +22022,7 @@
         <v>5.4173385796297484E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -18891,7 +22035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -18922,7 +22066,7 @@
         <v>1.2817491489918828E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -18953,7 +22097,7 @@
         <v>1.890740508708182E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -18984,7 +22128,7 @@
         <v>3.8686529203379054E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -19022,19 +22166,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -19054,7 +22198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19085,7 +22229,7 @@
         <v>0.45345109584560023</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -19107,7 +22251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -19138,7 +22282,7 @@
         <v>0.1919563058589871</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -19160,7 +22304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -19182,7 +22326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -19204,7 +22348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -19235,7 +22379,7 @@
         <v>8.2734659362476565E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -19257,7 +22401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -19279,7 +22423,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -19310,7 +22454,7 @@
         <v>0.14154365246731337</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -19341,7 +22485,7 @@
         <v>0.32850304612706704</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -19354,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -19385,7 +22529,7 @@
         <v>0.1753196846220102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -19416,7 +22560,7 @@
         <v>0.3403746097814776</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -19429,7 +22573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -19460,7 +22604,7 @@
         <v>6.3195907312669275E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -19491,7 +22635,7 @@
         <v>7.3626052779337453E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -19522,7 +22666,7 @@
         <v>0.1078868284101737</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -19560,29 +22704,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" activeCellId="14" sqref="C36 E36 C34 E34 G34 G36 I34 I36 K34 K36 K38 I38 G38 E38 C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" customWidth="1"/>
-    <col min="3" max="3" width="18.73046875" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" customWidth="1"/>
-    <col min="6" max="6" width="20.46484375" customWidth="1"/>
-    <col min="7" max="7" width="19.1328125" customWidth="1"/>
-    <col min="8" max="8" width="16.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.46484375" customWidth="1"/>
-    <col min="10" max="10" width="15.73046875" customWidth="1"/>
-    <col min="11" max="11" width="15.46484375" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -19614,7 +22758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -19649,7 +22793,7 @@
         <v>0.89664699999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -19684,7 +22828,7 @@
         <v>0.84405300000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -19719,7 +22863,7 @@
         <v>0.89888699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -19754,7 +22898,7 @@
         <v>0.89093</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -19789,7 +22933,7 @@
         <v>0.94489100000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -19824,7 +22968,7 @@
         <v>0.89610500000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>SUM(B2:B7)/6</f>
         <v>0.99356133333333341</v>
@@ -19866,7 +23010,7 @@
         <v>0.89525216666666674</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>B8/C8</f>
         <v>1.000047474578873</v>
@@ -19908,7 +23052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>B9+D9+F9+H9+J9</f>
         <v>5.0336631575797437</v>
@@ -19918,7 +23062,7 @@
         <v>1.0067326315159488</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -19950,7 +23094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -19985,7 +23129,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -20020,7 +23164,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -20055,7 +23199,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -20090,7 +23234,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -20125,7 +23269,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -20160,7 +23304,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B12:B17)</f>
         <v>4703926</v>
@@ -20202,7 +23346,7 @@
         <v>18029</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>B18/6</f>
         <v>783987.66666666663</v>
@@ -20228,7 +23372,7 @@
         <v>214604.33333333334</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f>H18/6</f>
         <v>164199.83333333334</v>
       </c>
       <c r="I19">
@@ -20244,7 +23388,7 @@
         <v>3004.8333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <f>B19/C19</f>
         <v>1.2676575427484076</v>
@@ -20286,7 +23430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>B20+D20+F20+H20+J20</f>
         <v>24.502615964275698</v>
@@ -20296,7 +23440,7 @@
         <v>4.9005231928551396</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -20328,7 +23472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -20363,7 +23507,7 @@
         <v>2.5699999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -20398,7 +23542,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -20433,7 +23577,7 @@
         <v>3.271E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -20468,7 +23612,7 @@
         <v>9.665E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -20503,7 +23647,7 @@
         <v>7.5490000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -20538,7 +23682,7 @@
         <v>3.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <f>SUM(B23:B28)/6</f>
         <v>3.1935000000000002E-3</v>
@@ -20568,8 +23712,8 @@
         <v>5.8743666666666666E-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
-        <v>0.159883</v>
+        <f>SUM(I23:I28)/6</f>
+        <v>2.6647166666666666E-2</v>
       </c>
       <c r="J29">
         <f>SUM(J23:J28)/6</f>
@@ -20580,7 +23724,7 @@
         <v>3.0811000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <f>B29/C29</f>
         <v>0.23576965669988928</v>
@@ -20606,12 +23750,12 @@
         <v>2.5037082011677856</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
-        <v>0.36741659004813937</v>
+        <f>H29/I29</f>
+        <v>2.2044995402888361</v>
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>2.3212323148732916</v>
+        <v>0.3868720524788819</v>
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
@@ -20622,17 +23766,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <f>B30+D30+F30+H30+J30</f>
-        <v>3.3214157484585387</v>
+        <v>5.1584986986992352</v>
       </c>
       <c r="C31">
         <f>B31/5</f>
-        <v>0.66428314969170776</v>
+        <v>1.0316997397398471</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -20664,7 +23808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -20709,7 +23853,7 @@
         <v>0.35793871866295263</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -20754,7 +23898,7 @@
         <v>6.3195907312669275E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -20799,7 +23943,7 @@
         <v>0.3403746097814776</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -20844,7 +23988,7 @@
         <v>0.1919563058589871</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -20889,7 +24033,7 @@
         <v>0.32850304612706704</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -20934,7 +24078,7 @@
         <v>0.14997891185153944</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <f>SUM(B34:B39)</f>
         <v>2.49239032312842E-3</v>
@@ -20976,7 +24120,7 @@
         <v>1.4319474995946933</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <f>B40/C40</f>
         <v>1.155336504428182</v>
@@ -21018,7 +24162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <f>B41+D41+F41+H41+J41</f>
         <v>4.7149084684512088</v>
@@ -21034,4 +24178,317 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B9849-BC08-462C-9CA0-906B17C2A53D}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="2" sqref="A13:F13 A15:F15 A17:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <v>975138</v>
+      </c>
+      <c r="C2" s="2">
+        <v>557316</v>
+      </c>
+      <c r="D2" s="2">
+        <v>329568</v>
+      </c>
+      <c r="E2" s="2">
+        <v>155037</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40681</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>839925</v>
+      </c>
+      <c r="I2" s="2">
+        <v>439749</v>
+      </c>
+      <c r="J2" s="2">
+        <v>219407</v>
+      </c>
+      <c r="K2" s="2">
+        <v>60418</v>
+      </c>
+      <c r="L2" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3">
+        <v>742010</v>
+      </c>
+      <c r="C4" s="3">
+        <v>419565</v>
+      </c>
+      <c r="D4" s="3">
+        <v>240369</v>
+      </c>
+      <c r="E4" s="3">
+        <v>81581</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22990</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3">
+        <v>652061</v>
+      </c>
+      <c r="I4" s="3">
+        <v>358280</v>
+      </c>
+      <c r="J4" s="3">
+        <v>171898</v>
+      </c>
+      <c r="K4" s="3">
+        <v>31006</v>
+      </c>
+      <c r="L4" s="3">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3">
+        <v>682386</v>
+      </c>
+      <c r="C6" s="3">
+        <v>251338</v>
+      </c>
+      <c r="D6" s="3">
+        <v>185027</v>
+      </c>
+      <c r="E6" s="3">
+        <v>105433</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43872</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3">
+        <v>576710</v>
+      </c>
+      <c r="I6" s="3">
+        <v>197728</v>
+      </c>
+      <c r="J6" s="3">
+        <v>119581</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44005</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2298</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>30</v>
+      </c>
+      <c r="R6" s="4">
+        <v>40</v>
+      </c>
+      <c r="S6" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>3.2251845379833419E-4</v>
+      </c>
+      <c r="C13">
+        <v>2.2855973989621687E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.000552238081367E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.352877055154576E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.1455396868316905</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>3.3324403964639696E-4</v>
+      </c>
+      <c r="I13">
+        <v>2.1917048134276603E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.0166494232180377E-2</v>
+      </c>
+      <c r="K13">
+        <v>3.973981263861763E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.35793871866295263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>2.2344712335413267E-4</v>
+      </c>
+      <c r="C15">
+        <v>1.9124569494595592E-3</v>
+      </c>
+      <c r="D15">
+        <v>9.4741834429564551E-3</v>
+      </c>
+      <c r="E15">
+        <v>4.168862847967051E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.22438886472379296</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <v>1.7237651078656752E-4</v>
+      </c>
+      <c r="I15">
+        <v>2.1195712850284694E-3</v>
+      </c>
+      <c r="J15">
+        <v>1.0179874111391639E-2</v>
+      </c>
+      <c r="K15">
+        <v>5.4173385796297484E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.3403746097814776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>7.5206701192580164E-4</v>
+      </c>
+      <c r="C17">
+        <v>6.0090396199540064E-3</v>
+      </c>
+      <c r="D17">
+        <v>3.1328400719894935E-2</v>
+      </c>
+      <c r="E17">
+        <v>8.6439729496457465E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.23869894237782641</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17">
+        <v>5.879904978238629E-4</v>
+      </c>
+      <c r="I17">
+        <v>5.9915641689593782E-3</v>
+      </c>
+      <c r="J17">
+        <v>3.1250783987422752E-2</v>
+      </c>
+      <c r="K17">
+        <v>8.9873877968412688E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.32850304612706704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>